--- a/biology/Zoologie/Hadogenes_trichiurus/Hadogenes_trichiurus.xlsx
+++ b/biology/Zoologie/Hadogenes_trichiurus/Hadogenes_trichiurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hadogenes trichiurus est une espèce de scorpions de la famille des Hormuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (18/06/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (18/06/2020) :
 Hadogenes trichiurus caffer Hewitt, 1918
 Hadogenes trichiurus graciloides Hewitt, 1918
 Hadogenes trichiurus pallidus Pocock, 1898
@@ -579,9 +595,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio trichiurus par Gervais en 1843. Elle est placée dans le genre Ischnurus par Thorell en 1876[3] puis dans le genre Hadogenes par Kraepelin en 1894[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio trichiurus par Gervais en 1843. Elle est placée dans le genre Ischnurus par Thorell en 1876 puis dans le genre Hadogenes par Kraepelin en 1894.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gervais, 1843 : Remarques sur la famille des scorpions et description de plusieurs espèces nouvelles de la collection du Muséum. Société Philomatique de Paris Extraits des Procès-Verbaux des Séances, vol. 5, no 7, p. 129-131 (texte intégral).
 Pocock, 1898 : The Arachnida from the province of Natal, South Africa, contained in the collection of the British Museum. Annals and Magazine of Natural History, sér. 7, vol. 2, p. 197-226 (texte intégral).
